--- a/Robot_Data_Library/Data.xlsx
+++ b/Robot_Data_Library/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://logstarerp-my.sharepoint.com/personal/irfan_inamdar_logstarerp_com/Documents/Automation Testing/Robot Freamwork/Softwares/workspace/Enabill_4.5/Robot_Data_Library/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://envecon-my.sharepoint.com/personal/irfan_inamdar_envecon_com/Documents/All Envecon Project Data/Automation Testing/Robot Freamwork/Softwares/workspace/Enabill_4.5/Robot_Data_Library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{A7D107D3-771B-4D56-82C3-BEC6F5E5D964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F80D1612-D72F-45D0-A662-DE01A7120C78}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{A7D107D3-771B-4D56-82C3-BEC6F5E5D964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5982D57D-221D-4136-9CB6-0F8E243467C7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0B886FC2-046F-4CAF-93B7-DCE6C1B1D55B}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -60,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,23 +67,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,17 +104,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,33 +472,33 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
